--- a/VL_accounts/Lab Assignment UOB Workshop 18-19 Dec.xlsx
+++ b/VL_accounts/Lab Assignment UOB Workshop 18-19 Dec.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smyhxt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0130A3-08DC-4C44-84F5-25A90003D98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D87A08D-E1B9-4A5E-9BF7-1D09555D0FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3720" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E1BABC-6C6A-450D-95CB-4DB0F688AF67}"/>
+    <workbookView xWindow="-28920" yWindow="-3720" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B8E1BABC-6C6A-450D-95CB-4DB0F688AF67}"/>
   </bookViews>
   <sheets>
     <sheet name="ONSITE AM" sheetId="1" r:id="rId1"/>
     <sheet name="ONSITE PM" sheetId="3" r:id="rId2"/>
     <sheet name="REMOTE AM" sheetId="2" r:id="rId3"/>
     <sheet name="REMOTE PM" sheetId="4" r:id="rId4"/>
+    <sheet name="Backup" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="144">
   <si>
     <t>No.</t>
   </si>
@@ -450,6 +451,27 @@
   </si>
   <si>
     <t>MA0007107a</t>
+  </si>
+  <si>
+    <t>azureger010316</t>
+  </si>
+  <si>
+    <t>azureuse010136</t>
+  </si>
+  <si>
+    <t>azureuse010410</t>
+  </si>
+  <si>
+    <t>azureuse010188</t>
+  </si>
+  <si>
+    <t>azureuse010013</t>
+  </si>
+  <si>
+    <t>azureuse010461</t>
+  </si>
+  <si>
+    <t>BACKUP</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8408276F-B0AF-4CDE-8D01-04B172967ACF}">
   <dimension ref="A2:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -1556,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E5" s="13">
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="F5" s="13">
         <v>45645</v>
@@ -2480,7 +2502,7 @@
   <dimension ref="A2:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2546,13 +2568,13 @@
         <v>25</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="E5" s="13">
-        <v>45640</v>
+        <v>45644</v>
       </c>
       <c r="F5" s="13">
         <v>45645</v>
@@ -2959,4 +2981,213 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2DC7AD-37B9-493A-B1B6-D4ED5C46181E}">
+  <dimension ref="A2:M26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="40.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="6.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" ht="21.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="1:13" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>61</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="13">
+        <v>45644</v>
+      </c>
+      <c r="F5" s="13">
+        <v>45645</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>62</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="13">
+        <v>45644</v>
+      </c>
+      <c r="F6" s="13">
+        <v>45645</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+    </row>
+    <row r="7" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>63</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="13">
+        <v>45644</v>
+      </c>
+      <c r="F7" s="13">
+        <v>45645</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+    </row>
+    <row r="8" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>64</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="13">
+        <v>45644</v>
+      </c>
+      <c r="F8" s="13">
+        <v>45645</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+    </row>
+    <row r="9" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>65</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="13">
+        <v>45644</v>
+      </c>
+      <c r="F9" s="13">
+        <v>45645</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+    </row>
+    <row r="10" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="24" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" ht="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H3:M5"/>
+    <mergeCell ref="H7:M9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VL_accounts/Lab Assignment UOB Workshop 18-19 Dec.xlsx
+++ b/VL_accounts/Lab Assignment UOB Workshop 18-19 Dec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smyhxt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D87A08D-E1B9-4A5E-9BF7-1D09555D0FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61411897-32FC-4F25-A2E5-24672E6B0BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3720" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{B8E1BABC-6C6A-450D-95CB-4DB0F688AF67}"/>
+    <workbookView xWindow="-28920" yWindow="-3720" windowWidth="29040" windowHeight="15720" xr2:uid="{B8E1BABC-6C6A-450D-95CB-4DB0F688AF67}"/>
   </bookViews>
   <sheets>
     <sheet name="ONSITE AM" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="144">
   <si>
     <t>No.</t>
   </si>
@@ -58,427 +58,427 @@
     <t>End Date</t>
   </si>
   <si>
-    <t xml:space="preserve">Go to https://razergergw1.sas.com/guacamole , then look for the lab credential assigned under your name, log on. </t>
-  </si>
-  <si>
-    <t>If you have issues with accessing the URL, please try the following instead: https://razergergw2.sas.com/guacamole</t>
+    <t>azureuse010423</t>
+  </si>
+  <si>
+    <t>azureuse010474</t>
+  </si>
+  <si>
+    <t>azureuse020343</t>
+  </si>
+  <si>
+    <t>azureuse010380</t>
+  </si>
+  <si>
+    <t>azureuse020290</t>
+  </si>
+  <si>
+    <t>azureuse010110</t>
+  </si>
+  <si>
+    <t>azureuse020389</t>
+  </si>
+  <si>
+    <t>azureuse010195</t>
+  </si>
+  <si>
+    <t>azureuse010147</t>
+  </si>
+  <si>
+    <t>azureuse010211</t>
+  </si>
+  <si>
+    <t>azureuse010225</t>
+  </si>
+  <si>
+    <t>azureuse010465</t>
+  </si>
+  <si>
+    <t>azureuse010270</t>
+  </si>
+  <si>
+    <t>azureuse010357</t>
+  </si>
+  <si>
+    <t>azureuse020165</t>
+  </si>
+  <si>
+    <t>azureuse010321</t>
+  </si>
+  <si>
+    <t>INSTRUCTOR (DR PEERAPON)</t>
+  </si>
+  <si>
+    <t>ONSITE AM SESSION</t>
+  </si>
+  <si>
+    <t>VO Thi Thuy An</t>
+  </si>
+  <si>
+    <t>Nguyen Phu Sang</t>
+  </si>
+  <si>
+    <t>Pham Nhu Quynh</t>
+  </si>
+  <si>
+    <t>Doan Thanh Hung</t>
+  </si>
+  <si>
+    <t>Hoang Tien Dat</t>
+  </si>
+  <si>
+    <t>Mai Thi Lam Vy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pham Minh Tu </t>
+  </si>
+  <si>
+    <t>Bach Ngoc Hai Dang</t>
+  </si>
+  <si>
+    <t>Nguyen Minh Tuan</t>
+  </si>
+  <si>
+    <t>Duong Ngoc Minh</t>
+  </si>
+  <si>
+    <t>Ta Linh Trang</t>
+  </si>
+  <si>
+    <t>Le Nguyen Bao Chau</t>
+  </si>
+  <si>
+    <t>Huynh Thi My Linh</t>
+  </si>
+  <si>
+    <t>Hoang Thi My Hang</t>
+  </si>
+  <si>
+    <t>Dang Thi Thanh Dung</t>
+  </si>
+  <si>
+    <t>Luong Giang Thanh</t>
+  </si>
+  <si>
+    <t>Park Junho</t>
+  </si>
+  <si>
+    <t>Matthew Kong</t>
+  </si>
+  <si>
+    <t>Teh Ching Woon</t>
+  </si>
+  <si>
+    <t>Chee Fong Chan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wong Yeong Ni </t>
+  </si>
+  <si>
+    <t>Tee Yee Yang</t>
+  </si>
+  <si>
+    <t>RISHABH TIWARI</t>
+  </si>
+  <si>
+    <t>Dawid KABZINSKI</t>
+  </si>
+  <si>
+    <t>mary jane tajodloy</t>
+  </si>
+  <si>
+    <t>Madhur</t>
+  </si>
+  <si>
+    <t>Shardendu PANDEY</t>
+  </si>
+  <si>
+    <t>Jorasmi Gagarin</t>
+  </si>
+  <si>
+    <t>Vijay Kumar BUCHETI</t>
+  </si>
+  <si>
+    <t>Tan Han Meng</t>
+  </si>
+  <si>
+    <t>Derick Sin</t>
+  </si>
+  <si>
+    <t>Arianto Hidayat</t>
+  </si>
+  <si>
+    <t>Mandy Tan</t>
+  </si>
+  <si>
+    <t>Melvyn Li</t>
+  </si>
+  <si>
+    <t>Vu Anh Thu</t>
+  </si>
+  <si>
+    <t>Le Thi Ngoc</t>
+  </si>
+  <si>
+    <t>Do Viet Thai Binh</t>
+  </si>
+  <si>
+    <t>Pham Minh Thanh</t>
+  </si>
+  <si>
+    <t>Mai Thu Ha</t>
+  </si>
+  <si>
+    <t>Chris Tee</t>
+  </si>
+  <si>
+    <t>Tang Wei Mun</t>
+  </si>
+  <si>
+    <t>Loh Choon Lay</t>
+  </si>
+  <si>
+    <t>Kwek Sok Chin</t>
+  </si>
+  <si>
+    <t>Wendy Tay</t>
+  </si>
+  <si>
+    <t>Jonathan Siu</t>
+  </si>
+  <si>
+    <t>ONSITE PM SESSION</t>
+  </si>
+  <si>
+    <t>REMOTE AM SESSION</t>
+  </si>
+  <si>
+    <t>REMOTE PM SESSION</t>
+  </si>
+  <si>
+    <t>Dujdao Komonweerakate</t>
+  </si>
+  <si>
+    <t>Nach Aroonrerk</t>
+  </si>
+  <si>
+    <t>Tran Thanh Binh</t>
+  </si>
+  <si>
+    <t>Le Thi Anh Thu</t>
+  </si>
+  <si>
+    <t>Nguyen Thi Bich Ngan</t>
+  </si>
+  <si>
+    <t>Dang Tran Kim Chi</t>
+  </si>
+  <si>
+    <t>Nguyen Dang Son</t>
+  </si>
+  <si>
+    <t>Tran Thi Hong Diem</t>
+  </si>
+  <si>
+    <t>Tran Van Tai</t>
+  </si>
+  <si>
+    <t>Ho Ngoc Hung</t>
+  </si>
+  <si>
+    <t>Le Quynh Nhu</t>
+  </si>
+  <si>
+    <t>Cao Huy</t>
+  </si>
+  <si>
+    <t>Khoo Hui Chee</t>
+  </si>
+  <si>
+    <t>Frannie Lam Guat Bee</t>
+  </si>
+  <si>
+    <t>Nilam Ahmad</t>
+  </si>
+  <si>
+    <t>azureuse010042</t>
+  </si>
+  <si>
+    <t>3777851_SG</t>
+  </si>
+  <si>
+    <t>azureuse010007</t>
+  </si>
+  <si>
+    <t>azureuse010406</t>
+  </si>
+  <si>
+    <t>azureuse010180</t>
+  </si>
+  <si>
+    <t>azureuse010401</t>
+  </si>
+  <si>
+    <t>azureuse010424</t>
+  </si>
+  <si>
+    <t>azureuse010192</t>
+  </si>
+  <si>
+    <t>azureuse020329</t>
+  </si>
+  <si>
+    <t>azureuse020154</t>
+  </si>
+  <si>
+    <t>azureuse010381</t>
+  </si>
+  <si>
+    <t>azureuse010467</t>
+  </si>
+  <si>
+    <t>azureuse010258</t>
+  </si>
+  <si>
+    <t>azureuse010153</t>
+  </si>
+  <si>
+    <t>azureuse020054</t>
+  </si>
+  <si>
+    <t>azureuse020130</t>
+  </si>
+  <si>
+    <t>azureuse020325</t>
+  </si>
+  <si>
+    <t>azureuse010041</t>
+  </si>
+  <si>
+    <t>azureuse010444</t>
+  </si>
+  <si>
+    <t>azureuse010092</t>
+  </si>
+  <si>
+    <t>azureuse010108</t>
+  </si>
+  <si>
+    <t>azureuse020285</t>
+  </si>
+  <si>
+    <t>azureuse020272</t>
+  </si>
+  <si>
+    <t>azureuse020055</t>
+  </si>
+  <si>
+    <t>azureuse020310</t>
+  </si>
+  <si>
+    <t>azureuse010447</t>
+  </si>
+  <si>
+    <t>azureuse010236</t>
+  </si>
+  <si>
+    <t>azureuse010386</t>
+  </si>
+  <si>
+    <t>azureuse020237</t>
+  </si>
+  <si>
+    <t>azureuse020235</t>
+  </si>
+  <si>
+    <t>azureuse020207</t>
+  </si>
+  <si>
+    <t>azureuse010261</t>
+  </si>
+  <si>
+    <t>azureuse010453</t>
+  </si>
+  <si>
+    <t>azureuse020170</t>
+  </si>
+  <si>
+    <t>azureuse020305</t>
+  </si>
+  <si>
+    <t>azureuse020262</t>
+  </si>
+  <si>
+    <t>azureuse020052</t>
+  </si>
+  <si>
+    <t>azureuse010325</t>
+  </si>
+  <si>
+    <t>azureuse010036</t>
+  </si>
+  <si>
+    <t>azureuse010138</t>
+  </si>
+  <si>
+    <t>azureuse020027</t>
+  </si>
+  <si>
+    <t>azureuse020047</t>
+  </si>
+  <si>
+    <t>azureuse020066</t>
+  </si>
+  <si>
+    <t>azureuse010333</t>
+  </si>
+  <si>
+    <t>azureuse010150</t>
+  </si>
+  <si>
+    <t>azureger010265</t>
+  </si>
+  <si>
+    <t>MA0007107a</t>
+  </si>
+  <si>
+    <t>azureger010316</t>
+  </si>
+  <si>
+    <t>azureuse010136</t>
+  </si>
+  <si>
+    <t>azureuse010410</t>
+  </si>
+  <si>
+    <t>azureuse010188</t>
+  </si>
+  <si>
+    <t>azureuse010013</t>
+  </si>
+  <si>
+    <t>azureuse010461</t>
+  </si>
+  <si>
+    <t>BACKUP</t>
+  </si>
+  <si>
+    <t>For instructor AM ONLY: https://razergergw1.sas.com/guacamole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to https://labs.liveweb.sas.com/logon/LogonPoint/ , then look for the lab credential assigned under your name, log on. </t>
   </si>
   <si>
     <t>Note: To disconnect from your session, please execute the following:
-o	Select the Ctrl-Alt-Shift buttons within your window 
-o	In the left pane, select the Username and then Logout</t>
-  </si>
-  <si>
-    <t>azureuse010423</t>
-  </si>
-  <si>
-    <t>azureuse010474</t>
-  </si>
-  <si>
-    <t>azureuse020343</t>
-  </si>
-  <si>
-    <t>azureuse010380</t>
-  </si>
-  <si>
-    <t>azureuse020290</t>
-  </si>
-  <si>
-    <t>azureuse010110</t>
-  </si>
-  <si>
-    <t>azureuse020389</t>
-  </si>
-  <si>
-    <t>azureuse010195</t>
-  </si>
-  <si>
-    <t>azureuse010147</t>
-  </si>
-  <si>
-    <t>azureuse010211</t>
-  </si>
-  <si>
-    <t>azureuse010225</t>
-  </si>
-  <si>
-    <t>azureuse010465</t>
-  </si>
-  <si>
-    <t>azureuse010270</t>
-  </si>
-  <si>
-    <t>azureuse010357</t>
-  </si>
-  <si>
-    <t>azureuse020165</t>
-  </si>
-  <si>
-    <t>azureuse010321</t>
-  </si>
-  <si>
-    <t>INSTRUCTOR (DR PEERAPON)</t>
-  </si>
-  <si>
-    <t>ONSITE AM SESSION</t>
-  </si>
-  <si>
-    <t>VO Thi Thuy An</t>
-  </si>
-  <si>
-    <t>Nguyen Phu Sang</t>
-  </si>
-  <si>
-    <t>Pham Nhu Quynh</t>
-  </si>
-  <si>
-    <t>Doan Thanh Hung</t>
-  </si>
-  <si>
-    <t>Hoang Tien Dat</t>
-  </si>
-  <si>
-    <t>Mai Thi Lam Vy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pham Minh Tu </t>
-  </si>
-  <si>
-    <t>Bach Ngoc Hai Dang</t>
-  </si>
-  <si>
-    <t>Nguyen Minh Tuan</t>
-  </si>
-  <si>
-    <t>Duong Ngoc Minh</t>
-  </si>
-  <si>
-    <t>Ta Linh Trang</t>
-  </si>
-  <si>
-    <t>Le Nguyen Bao Chau</t>
-  </si>
-  <si>
-    <t>Huynh Thi My Linh</t>
-  </si>
-  <si>
-    <t>Hoang Thi My Hang</t>
-  </si>
-  <si>
-    <t>Dang Thi Thanh Dung</t>
-  </si>
-  <si>
-    <t>Luong Giang Thanh</t>
-  </si>
-  <si>
-    <t>Park Junho</t>
-  </si>
-  <si>
-    <t>Matthew Kong</t>
-  </si>
-  <si>
-    <t>Teh Ching Woon</t>
-  </si>
-  <si>
-    <t>Chee Fong Chan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wong Yeong Ni </t>
-  </si>
-  <si>
-    <t>Tee Yee Yang</t>
-  </si>
-  <si>
-    <t>RISHABH TIWARI</t>
-  </si>
-  <si>
-    <t>Dawid KABZINSKI</t>
-  </si>
-  <si>
-    <t>mary jane tajodloy</t>
-  </si>
-  <si>
-    <t>Madhur</t>
-  </si>
-  <si>
-    <t>Shardendu PANDEY</t>
-  </si>
-  <si>
-    <t>Jorasmi Gagarin</t>
-  </si>
-  <si>
-    <t>Vijay Kumar BUCHETI</t>
-  </si>
-  <si>
-    <t>Tan Han Meng</t>
-  </si>
-  <si>
-    <t>Derick Sin</t>
-  </si>
-  <si>
-    <t>Arianto Hidayat</t>
-  </si>
-  <si>
-    <t>Mandy Tan</t>
-  </si>
-  <si>
-    <t>Melvyn Li</t>
-  </si>
-  <si>
-    <t>Vu Anh Thu</t>
-  </si>
-  <si>
-    <t>Le Thi Ngoc</t>
-  </si>
-  <si>
-    <t>Do Viet Thai Binh</t>
-  </si>
-  <si>
-    <t>Pham Minh Thanh</t>
-  </si>
-  <si>
-    <t>Mai Thu Ha</t>
-  </si>
-  <si>
-    <t>Chris Tee</t>
-  </si>
-  <si>
-    <t>Tang Wei Mun</t>
-  </si>
-  <si>
-    <t>Loh Choon Lay</t>
-  </si>
-  <si>
-    <t>Kwek Sok Chin</t>
-  </si>
-  <si>
-    <t>Wendy Tay</t>
-  </si>
-  <si>
-    <t>Jonathan Siu</t>
-  </si>
-  <si>
-    <t>ONSITE PM SESSION</t>
-  </si>
-  <si>
-    <t>REMOTE AM SESSION</t>
-  </si>
-  <si>
-    <t>REMOTE PM SESSION</t>
-  </si>
-  <si>
-    <t>Dujdao Komonweerakate</t>
-  </si>
-  <si>
-    <t>Nach Aroonrerk</t>
-  </si>
-  <si>
-    <t>Tran Thanh Binh</t>
-  </si>
-  <si>
-    <t>Le Thi Anh Thu</t>
-  </si>
-  <si>
-    <t>Nguyen Thi Bich Ngan</t>
-  </si>
-  <si>
-    <t>Dang Tran Kim Chi</t>
-  </si>
-  <si>
-    <t>Nguyen Dang Son</t>
-  </si>
-  <si>
-    <t>Tran Thi Hong Diem</t>
-  </si>
-  <si>
-    <t>Tran Van Tai</t>
-  </si>
-  <si>
-    <t>Ho Ngoc Hung</t>
-  </si>
-  <si>
-    <t>Le Quynh Nhu</t>
-  </si>
-  <si>
-    <t>Cao Huy</t>
-  </si>
-  <si>
-    <t>Khoo Hui Chee</t>
-  </si>
-  <si>
-    <t>Frannie Lam Guat Bee</t>
-  </si>
-  <si>
-    <t>Nilam Ahmad</t>
-  </si>
-  <si>
-    <t>azureuse010042</t>
-  </si>
-  <si>
-    <t>3777851_SG</t>
-  </si>
-  <si>
-    <t>azureuse010007</t>
-  </si>
-  <si>
-    <t>azureuse010406</t>
-  </si>
-  <si>
-    <t>azureuse010180</t>
-  </si>
-  <si>
-    <t>azureuse010401</t>
-  </si>
-  <si>
-    <t>azureuse010424</t>
-  </si>
-  <si>
-    <t>azureuse010192</t>
-  </si>
-  <si>
-    <t>azureuse020329</t>
-  </si>
-  <si>
-    <t>azureuse020154</t>
-  </si>
-  <si>
-    <t>azureuse010381</t>
-  </si>
-  <si>
-    <t>azureuse010467</t>
-  </si>
-  <si>
-    <t>azureuse010258</t>
-  </si>
-  <si>
-    <t>azureuse010153</t>
-  </si>
-  <si>
-    <t>azureuse020054</t>
-  </si>
-  <si>
-    <t>azureuse020130</t>
-  </si>
-  <si>
-    <t>azureuse020325</t>
-  </si>
-  <si>
-    <t>azureuse010041</t>
-  </si>
-  <si>
-    <t>azureuse010444</t>
-  </si>
-  <si>
-    <t>azureuse010092</t>
-  </si>
-  <si>
-    <t>azureuse010108</t>
-  </si>
-  <si>
-    <t>azureuse020285</t>
-  </si>
-  <si>
-    <t>azureuse020272</t>
-  </si>
-  <si>
-    <t>azureuse020055</t>
-  </si>
-  <si>
-    <t>azureuse020310</t>
-  </si>
-  <si>
-    <t>azureuse010447</t>
-  </si>
-  <si>
-    <t>azureuse010236</t>
-  </si>
-  <si>
-    <t>azureuse010386</t>
-  </si>
-  <si>
-    <t>azureuse020237</t>
-  </si>
-  <si>
-    <t>azureuse020235</t>
-  </si>
-  <si>
-    <t>azureuse020207</t>
-  </si>
-  <si>
-    <t>azureuse010261</t>
-  </si>
-  <si>
-    <t>azureuse010453</t>
-  </si>
-  <si>
-    <t>azureuse020170</t>
-  </si>
-  <si>
-    <t>azureuse020305</t>
-  </si>
-  <si>
-    <t>azureuse020262</t>
-  </si>
-  <si>
-    <t>azureuse020052</t>
-  </si>
-  <si>
-    <t>azureuse010325</t>
-  </si>
-  <si>
-    <t>azureuse010036</t>
-  </si>
-  <si>
-    <t>azureuse010138</t>
-  </si>
-  <si>
-    <t>azureuse020027</t>
-  </si>
-  <si>
-    <t>azureuse020047</t>
-  </si>
-  <si>
-    <t>azureuse020066</t>
-  </si>
-  <si>
-    <t>azureuse010333</t>
-  </si>
-  <si>
-    <t>azureuse010150</t>
-  </si>
-  <si>
-    <t>azureger010265</t>
-  </si>
-  <si>
-    <t>MA0007107a</t>
-  </si>
-  <si>
-    <t>azureger010316</t>
-  </si>
-  <si>
-    <t>azureuse010136</t>
-  </si>
-  <si>
-    <t>azureuse010410</t>
-  </si>
-  <si>
-    <t>azureuse010188</t>
-  </si>
-  <si>
-    <t>azureuse010013</t>
-  </si>
-  <si>
-    <t>azureuse010461</t>
-  </si>
-  <si>
-    <t>BACKUP</t>
+o	click start, select log off 
+o	at the home screen, expand arrow upper right -&gt; log off</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -527,6 +527,15 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF222A35"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -699,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -752,6 +761,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,8 +1081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8408276F-B0AF-4CDE-8D01-04B172967ACF}">
   <dimension ref="A2:M18"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1091,10 +1103,16 @@
   <sheetData>
     <row r="2" spans="1:13" ht="23.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>26</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
       <c r="H2" s="17" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -1139,13 +1157,13 @@
     <row r="5" spans="1:13" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E5" s="13">
         <v>45640</v>
@@ -1165,13 +1183,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" s="13">
         <v>45644</v>
@@ -1191,13 +1209,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" s="13">
         <v>45644</v>
@@ -1205,9 +1223,7 @@
       <c r="F7" s="13">
         <v>45645</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
@@ -1219,13 +1235,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" s="13">
         <v>45644</v>
@@ -1245,13 +1261,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="13">
         <v>45644</v>
@@ -1271,13 +1287,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" s="13">
         <v>45644</v>
@@ -1297,13 +1313,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="13">
         <v>45644</v>
@@ -1312,7 +1328,7 @@
         <v>45645</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1325,13 +1341,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E12" s="13">
         <v>45644</v>
@@ -1351,13 +1367,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E13" s="13">
         <v>45644</v>
@@ -1377,13 +1393,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E14" s="13">
         <v>45644</v>
@@ -1403,13 +1419,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E15" s="13">
         <v>45644</v>
@@ -1423,13 +1439,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E16" s="13">
         <v>45644</v>
@@ -1449,13 +1465,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E17" s="13">
         <v>45644</v>
@@ -1475,13 +1491,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E18" s="13">
         <v>45644</v>
@@ -1497,10 +1513,11 @@
       <c r="M18" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="H2:M5"/>
     <mergeCell ref="H7:M9"/>
     <mergeCell ref="H11:M13"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
@@ -1512,7 +1529,7 @@
   <dimension ref="A2:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+      <selection activeCell="H3" sqref="H3:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1533,12 +1550,12 @@
   <sheetData>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H3" s="17" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -1575,13 +1592,13 @@
     <row r="5" spans="1:13" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5" s="13">
         <v>45644</v>
@@ -1601,13 +1618,13 @@
         <v>14</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" s="13">
         <v>45644</v>
@@ -1627,13 +1644,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" s="13">
         <v>45644</v>
@@ -1653,13 +1670,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" s="13">
         <v>45644</v>
@@ -1667,9 +1684,7 @@
       <c r="F8" s="13">
         <v>45645</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -1681,13 +1696,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="13">
         <v>45644</v>
@@ -1707,13 +1722,13 @@
         <v>18</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" s="13">
         <v>45644</v>
@@ -1738,7 +1753,7 @@
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="H12" s="18" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -1793,7 +1808,7 @@
   <dimension ref="A2:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:F5"/>
+      <selection activeCell="H11" sqref="H11:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1814,10 +1829,10 @@
   <sheetData>
     <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -1862,13 +1877,13 @@
     <row r="5" spans="1:13" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E5" s="13">
         <v>45640</v>
@@ -1888,13 +1903,13 @@
         <v>19</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" s="13">
         <v>45644</v>
@@ -1914,13 +1929,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" s="13">
         <v>45644</v>
@@ -1928,9 +1943,7 @@
       <c r="F7" s="13">
         <v>45645</v>
       </c>
-      <c r="H7" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
@@ -1942,13 +1955,13 @@
         <v>21</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" s="13">
         <v>45644</v>
@@ -1968,13 +1981,13 @@
         <v>22</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="13">
         <v>45644</v>
@@ -1994,13 +2007,13 @@
         <v>23</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" s="13">
         <v>45644</v>
@@ -2020,13 +2033,13 @@
         <v>24</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="13">
         <v>45644</v>
@@ -2035,7 +2048,7 @@
         <v>45645</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -2048,13 +2061,13 @@
         <v>25</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E12" s="13">
         <v>45644</v>
@@ -2074,13 +2087,13 @@
         <v>26</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E13" s="13">
         <v>45644</v>
@@ -2100,13 +2113,13 @@
         <v>27</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E14" s="13">
         <v>45644</v>
@@ -2126,13 +2139,13 @@
         <v>28</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E15" s="13">
         <v>45644</v>
@@ -2152,13 +2165,13 @@
         <v>29</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E16" s="13">
         <v>45644</v>
@@ -2172,13 +2185,13 @@
         <v>30</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E17" s="13">
         <v>45644</v>
@@ -2192,13 +2205,13 @@
         <v>31</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E18" s="13">
         <v>45644</v>
@@ -2212,13 +2225,13 @@
         <v>32</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E19" s="13">
         <v>45644</v>
@@ -2232,13 +2245,13 @@
         <v>33</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E20" s="13">
         <v>45644</v>
@@ -2252,13 +2265,13 @@
         <v>34</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E21" s="13">
         <v>45644</v>
@@ -2272,13 +2285,13 @@
         <v>35</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E22" s="13">
         <v>45644</v>
@@ -2292,13 +2305,13 @@
         <v>36</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E23" s="13">
         <v>45644</v>
@@ -2312,13 +2325,13 @@
         <v>37</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E24" s="13">
         <v>45644</v>
@@ -2332,13 +2345,13 @@
         <v>38</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E25" s="13">
         <v>45644</v>
@@ -2352,13 +2365,13 @@
         <v>39</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E26" s="13">
         <v>45644</v>
@@ -2372,13 +2385,13 @@
         <v>40</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E27" s="13">
         <v>45644</v>
@@ -2392,13 +2405,13 @@
         <v>41</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E28" s="13">
         <v>45644</v>
@@ -2412,13 +2425,13 @@
         <v>42</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E29" s="13">
         <v>45644</v>
@@ -2432,13 +2445,13 @@
         <v>43</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E30" s="13">
         <v>45644</v>
@@ -2452,13 +2465,13 @@
         <v>44</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E31" s="13">
         <v>45644</v>
@@ -2472,13 +2485,13 @@
         <v>45</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E32" s="13">
         <v>45644</v>
@@ -2502,7 +2515,7 @@
   <dimension ref="A2:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2523,12 +2536,12 @@
   <sheetData>
     <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H3" s="17" t="s">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -2565,13 +2578,13 @@
     <row r="5" spans="1:13" ht="21.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5" s="13">
         <v>45644</v>
@@ -2591,13 +2604,13 @@
         <v>46</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" s="13">
         <v>45644</v>
@@ -2617,13 +2630,13 @@
         <v>47</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" s="13">
         <v>45644</v>
@@ -2643,13 +2656,13 @@
         <v>48</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" s="13">
         <v>45644</v>
@@ -2657,9 +2670,7 @@
       <c r="F8" s="13">
         <v>45645</v>
       </c>
-      <c r="H8" s="18" t="s">
-        <v>7</v>
-      </c>
+      <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -2671,13 +2682,13 @@
         <v>49</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="13">
         <v>45644</v>
@@ -2697,13 +2708,13 @@
         <v>50</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E10" s="13">
         <v>45644</v>
@@ -2723,13 +2734,13 @@
         <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E11" s="13">
         <v>45644</v>
@@ -2749,13 +2760,13 @@
         <v>52</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E12" s="13">
         <v>45644</v>
@@ -2764,7 +2775,7 @@
         <v>45645</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -2777,13 +2788,13 @@
         <v>53</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E13" s="13">
         <v>45644</v>
@@ -2803,13 +2814,13 @@
         <v>54</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E14" s="13">
         <v>45644</v>
@@ -2829,13 +2840,13 @@
         <v>55</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E15" s="13">
         <v>45644</v>
@@ -2855,13 +2866,13 @@
         <v>56</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E16" s="13">
         <v>45644</v>
@@ -2881,13 +2892,13 @@
         <v>57</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E17" s="13">
         <v>45644</v>
@@ -2901,13 +2912,13 @@
         <v>58</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E18" s="13">
         <v>45644</v>
@@ -2921,13 +2932,13 @@
         <v>59</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E19" s="13">
         <v>45644</v>
@@ -2941,13 +2952,13 @@
         <v>60</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E20" s="13">
         <v>45644</v>
@@ -2987,8 +2998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2DC7AD-37B9-493A-B1B6-D4ED5C46181E}">
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3009,7 +3020,7 @@
   <sheetData>
     <row r="2" spans="1:13" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -3052,10 +3063,10 @@
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5" s="13">
         <v>45644</v>
@@ -3076,10 +3087,10 @@
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" s="13">
         <v>45644</v>
@@ -3100,10 +3111,10 @@
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E7" s="13">
         <v>45644</v>
@@ -3124,10 +3135,10 @@
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E8" s="13">
         <v>45644</v>
@@ -3148,10 +3159,10 @@
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="13">
         <v>45644</v>
